--- a/추가피처데이터/투자자별매매동향(수급)/009900.xlsx
+++ b/추가피처데이터/투자자별매매동향(수급)/009900.xlsx
@@ -1622,43 +1622,43 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.3515625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="21" max="21" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="22" max="22" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="23" max="23" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="32" max="32" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="33" max="33" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="8.484375" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="6.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="7.953125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="8.8828125" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="9.81640625" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="10.75" style="0" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="11.41796875" style="0" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1890,94 +1890,94 @@
         <v>18</v>
       </c>
       <c r="B6" s="5">
-        <v>5203</v>
+        <v>111616</v>
       </c>
       <c r="C6" s="7">
-        <v>4444</v>
+        <v>95309</v>
       </c>
       <c r="D6" s="9">
-        <v>759</v>
+        <v>16307</v>
       </c>
       <c r="E6" s="11">
-        <v>19976</v>
+        <v>433974</v>
       </c>
       <c r="F6" s="13">
-        <v>21169</v>
+        <v>459912</v>
       </c>
       <c r="G6" s="15">
-        <v>-1192</v>
+        <v>-25937</v>
       </c>
       <c r="H6" s="17">
-        <v>1643</v>
+        <v>35142</v>
       </c>
       <c r="I6" s="19">
-        <v>1238</v>
+        <v>26125</v>
       </c>
       <c r="J6" s="21">
-        <v>404</v>
+        <v>9017</v>
       </c>
       <c r="K6" s="23">
-        <v>373</v>
+        <v>8130</v>
       </c>
       <c r="L6" s="25">
-        <v>258</v>
+        <v>5456</v>
       </c>
       <c r="M6" s="27">
-        <v>116</v>
+        <v>2674</v>
       </c>
       <c r="N6" s="29">
-        <v>78</v>
+        <v>1594</v>
       </c>
       <c r="O6" s="31">
-        <v>20</v>
+        <v>384</v>
       </c>
       <c r="P6" s="33">
-        <v>58</v>
+        <v>1210</v>
       </c>
       <c r="Q6" s="35">
-        <v>391</v>
+        <v>8418</v>
       </c>
       <c r="R6" s="37">
-        <v>188</v>
+        <v>4001</v>
       </c>
       <c r="S6" s="39">
-        <v>203</v>
+        <v>4416</v>
       </c>
       <c r="T6" s="41">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="U6" s="43">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="V6" s="45">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="W6" s="47">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="X6" s="49">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="Y6" s="51">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z6" s="53">
-        <v>608</v>
+        <v>12774</v>
       </c>
       <c r="AA6" s="55">
-        <v>703</v>
+        <v>14745</v>
       </c>
       <c r="AB6" s="57">
-        <v>-95</v>
+        <v>-1972</v>
       </c>
       <c r="AC6" s="59">
-        <v>189</v>
+        <v>4162</v>
       </c>
       <c r="AD6" s="61">
-        <v>68</v>
+        <v>1492</v>
       </c>
       <c r="AE6" s="63">
-        <v>122</v>
+        <v>2670</v>
       </c>
       <c r="AF6" s="65">
         <v>0</v>
@@ -1989,16 +1989,16 @@
         <v>0</v>
       </c>
       <c r="AI6" s="71">
-        <v>125</v>
+        <v>2699</v>
       </c>
       <c r="AJ6" s="73">
-        <v>95</v>
+        <v>2085</v>
       </c>
       <c r="AK6" s="75">
-        <v>30</v>
+        <v>614</v>
       </c>
       <c r="AL6" s="77">
-        <v>26947</v>
+        <v>583431</v>
       </c>
     </row>
     <row r="7">
@@ -2006,94 +2006,94 @@
         <v>19</v>
       </c>
       <c r="B7" s="5">
-        <v>2320</v>
+        <v>46671</v>
       </c>
       <c r="C7" s="7">
-        <v>2347</v>
+        <v>46426</v>
       </c>
       <c r="D7" s="9">
-        <v>-27</v>
+        <v>245</v>
       </c>
       <c r="E7" s="11">
-        <v>7749</v>
+        <v>154709</v>
       </c>
       <c r="F7" s="13">
-        <v>6824</v>
+        <v>136931</v>
       </c>
       <c r="G7" s="15">
-        <v>925</v>
+        <v>17779</v>
       </c>
       <c r="H7" s="17">
-        <v>450</v>
+        <v>8947</v>
       </c>
       <c r="I7" s="19">
-        <v>1345</v>
+        <v>26919</v>
       </c>
       <c r="J7" s="21">
-        <v>-895</v>
+        <v>-17972</v>
       </c>
       <c r="K7" s="23">
-        <v>173</v>
+        <v>3455</v>
       </c>
       <c r="L7" s="25">
-        <v>256</v>
+        <v>5093</v>
       </c>
       <c r="M7" s="27">
-        <v>-83</v>
+        <v>-1638</v>
       </c>
       <c r="N7" s="29">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="O7" s="31">
-        <v>39</v>
+        <v>782</v>
       </c>
       <c r="P7" s="33">
-        <v>-38</v>
+        <v>-754</v>
       </c>
       <c r="Q7" s="35">
-        <v>21</v>
+        <v>422</v>
       </c>
       <c r="R7" s="37">
-        <v>376</v>
+        <v>7580</v>
       </c>
       <c r="S7" s="39">
-        <v>-355</v>
+        <v>-7158</v>
       </c>
       <c r="T7" s="41">
         <v>0</v>
       </c>
       <c r="U7" s="43">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="V7" s="45">
-        <v>-5</v>
+        <v>-107</v>
       </c>
       <c r="W7" s="47">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="X7" s="49">
         <v>0</v>
       </c>
       <c r="Y7" s="51">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="Z7" s="53">
-        <v>203</v>
+        <v>3983</v>
       </c>
       <c r="AA7" s="55">
-        <v>565</v>
+        <v>11269</v>
       </c>
       <c r="AB7" s="57">
-        <v>-362</v>
+        <v>-7286</v>
       </c>
       <c r="AC7" s="59">
-        <v>51</v>
+        <v>1041</v>
       </c>
       <c r="AD7" s="61">
-        <v>104</v>
+        <v>2089</v>
       </c>
       <c r="AE7" s="63">
-        <v>-54</v>
+        <v>-1048</v>
       </c>
       <c r="AF7" s="65">
         <v>0</v>
@@ -2105,16 +2105,16 @@
         <v>0</v>
       </c>
       <c r="AI7" s="71">
-        <v>44</v>
+        <v>902</v>
       </c>
       <c r="AJ7" s="73">
-        <v>47</v>
+        <v>954</v>
       </c>
       <c r="AK7" s="75">
-        <v>-3</v>
+        <v>-52</v>
       </c>
       <c r="AL7" s="77">
-        <v>10563</v>
+        <v>211229</v>
       </c>
     </row>
     <row r="8">
@@ -2122,94 +2122,94 @@
         <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>3231</v>
+        <v>64932</v>
       </c>
       <c r="C8" s="7">
-        <v>3067</v>
+        <v>61630</v>
       </c>
       <c r="D8" s="9">
-        <v>164</v>
+        <v>3301</v>
       </c>
       <c r="E8" s="11">
-        <v>9744</v>
+        <v>196734</v>
       </c>
       <c r="F8" s="13">
-        <v>10166</v>
+        <v>205370</v>
       </c>
       <c r="G8" s="15">
-        <v>-421</v>
+        <v>-8636</v>
       </c>
       <c r="H8" s="17">
-        <v>1012</v>
+        <v>20401</v>
       </c>
       <c r="I8" s="19">
-        <v>747</v>
+        <v>14910</v>
       </c>
       <c r="J8" s="21">
-        <v>266</v>
+        <v>5491</v>
       </c>
       <c r="K8" s="23">
-        <v>227</v>
+        <v>4524</v>
       </c>
       <c r="L8" s="25">
-        <v>223</v>
+        <v>4434</v>
       </c>
       <c r="M8" s="27">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="N8" s="29">
-        <v>40</v>
+        <v>815</v>
       </c>
       <c r="O8" s="31">
-        <v>27</v>
+        <v>560</v>
       </c>
       <c r="P8" s="33">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="35">
-        <v>260</v>
+        <v>5327</v>
       </c>
       <c r="R8" s="37">
-        <v>214</v>
+        <v>4294</v>
       </c>
       <c r="S8" s="39">
-        <v>46</v>
+        <v>1034</v>
       </c>
       <c r="T8" s="41">
         <v>0</v>
       </c>
       <c r="U8" s="43">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="V8" s="45">
-        <v>-3</v>
+        <v>-60</v>
       </c>
       <c r="W8" s="47">
         <v>0</v>
       </c>
       <c r="X8" s="49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y8" s="51">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="Z8" s="53">
-        <v>379</v>
+        <v>7653</v>
       </c>
       <c r="AA8" s="55">
-        <v>110</v>
+        <v>2113</v>
       </c>
       <c r="AB8" s="57">
-        <v>269</v>
+        <v>5540</v>
       </c>
       <c r="AC8" s="59">
-        <v>105</v>
+        <v>2080</v>
       </c>
       <c r="AD8" s="61">
-        <v>168</v>
+        <v>3445</v>
       </c>
       <c r="AE8" s="63">
-        <v>-63</v>
+        <v>-1365</v>
       </c>
       <c r="AF8" s="65">
         <v>0</v>
@@ -2221,16 +2221,16 @@
         <v>0</v>
       </c>
       <c r="AI8" s="71">
-        <v>65</v>
+        <v>1321</v>
       </c>
       <c r="AJ8" s="73">
-        <v>73</v>
+        <v>1477</v>
       </c>
       <c r="AK8" s="75">
-        <v>-8</v>
+        <v>-156</v>
       </c>
       <c r="AL8" s="77">
-        <v>14052</v>
+        <v>283388</v>
       </c>
     </row>
     <row r="9">
@@ -2238,94 +2238,94 @@
         <v>21</v>
       </c>
       <c r="B9" s="5">
-        <v>3370</v>
+        <v>62615</v>
       </c>
       <c r="C9" s="7">
-        <v>2747</v>
+        <v>51236</v>
       </c>
       <c r="D9" s="9">
-        <v>623</v>
+        <v>11379</v>
       </c>
       <c r="E9" s="11">
-        <v>9411</v>
+        <v>176647</v>
       </c>
       <c r="F9" s="13">
-        <v>10818</v>
+        <v>202925</v>
       </c>
       <c r="G9" s="15">
-        <v>-1407</v>
+        <v>-26277</v>
       </c>
       <c r="H9" s="17">
-        <v>1592</v>
+        <v>29758</v>
       </c>
       <c r="I9" s="19">
-        <v>849</v>
+        <v>15637</v>
       </c>
       <c r="J9" s="21">
-        <v>743</v>
+        <v>14121</v>
       </c>
       <c r="K9" s="23">
-        <v>218</v>
+        <v>4015</v>
       </c>
       <c r="L9" s="25">
-        <v>289</v>
+        <v>5294</v>
       </c>
       <c r="M9" s="27">
-        <v>-72</v>
+        <v>-1279</v>
       </c>
       <c r="N9" s="29">
-        <v>26</v>
+        <v>479</v>
       </c>
       <c r="O9" s="31">
-        <v>48</v>
+        <v>886</v>
       </c>
       <c r="P9" s="33">
-        <v>-22</v>
+        <v>-407</v>
       </c>
       <c r="Q9" s="35">
-        <v>438</v>
+        <v>8383</v>
       </c>
       <c r="R9" s="37">
-        <v>210</v>
+        <v>3861</v>
       </c>
       <c r="S9" s="39">
-        <v>228</v>
+        <v>4522</v>
       </c>
       <c r="T9" s="41">
         <v>0</v>
       </c>
       <c r="U9" s="43">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="V9" s="45">
-        <v>-1</v>
+        <v>-25</v>
       </c>
       <c r="W9" s="47">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="X9" s="49">
         <v>0</v>
       </c>
       <c r="Y9" s="51">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="Z9" s="53">
-        <v>630</v>
+        <v>11777</v>
       </c>
       <c r="AA9" s="55">
-        <v>186</v>
+        <v>3460</v>
       </c>
       <c r="AB9" s="57">
-        <v>444</v>
+        <v>8317</v>
       </c>
       <c r="AC9" s="59">
-        <v>272</v>
+        <v>4946</v>
       </c>
       <c r="AD9" s="61">
-        <v>115</v>
+        <v>2110</v>
       </c>
       <c r="AE9" s="63">
-        <v>158</v>
+        <v>2836</v>
       </c>
       <c r="AF9" s="65">
         <v>0</v>
@@ -2337,16 +2337,16 @@
         <v>0</v>
       </c>
       <c r="AI9" s="71">
-        <v>120</v>
+        <v>2241</v>
       </c>
       <c r="AJ9" s="73">
-        <v>80</v>
+        <v>1463</v>
       </c>
       <c r="AK9" s="75">
-        <v>40</v>
+        <v>778</v>
       </c>
       <c r="AL9" s="77">
-        <v>14493</v>
+        <v>271261</v>
       </c>
     </row>
     <row r="10">
@@ -2354,94 +2354,94 @@
         <v>22</v>
       </c>
       <c r="B10" s="5">
-        <v>1535</v>
+        <v>24504</v>
       </c>
       <c r="C10" s="7">
-        <v>1103</v>
+        <v>17553</v>
       </c>
       <c r="D10" s="9">
-        <v>432</v>
+        <v>6951</v>
       </c>
       <c r="E10" s="11">
-        <v>3585</v>
+        <v>56925</v>
       </c>
       <c r="F10" s="13">
-        <v>4092</v>
+        <v>65123</v>
       </c>
       <c r="G10" s="15">
-        <v>-507</v>
+        <v>-8198</v>
       </c>
       <c r="H10" s="17">
-        <v>520</v>
+        <v>8189</v>
       </c>
       <c r="I10" s="19">
-        <v>429</v>
+        <v>6665</v>
       </c>
       <c r="J10" s="21">
-        <v>91</v>
+        <v>1523</v>
       </c>
       <c r="K10" s="23">
-        <v>159</v>
+        <v>2511</v>
       </c>
       <c r="L10" s="25">
-        <v>157</v>
+        <v>2433</v>
       </c>
       <c r="M10" s="27">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="N10" s="29">
-        <v>52</v>
+        <v>783</v>
       </c>
       <c r="O10" s="31">
-        <v>12</v>
+        <v>180</v>
       </c>
       <c r="P10" s="33">
-        <v>40</v>
+        <v>603</v>
       </c>
       <c r="Q10" s="35">
-        <v>101</v>
+        <v>1651</v>
       </c>
       <c r="R10" s="37">
-        <v>64</v>
+        <v>1025</v>
       </c>
       <c r="S10" s="39">
-        <v>37</v>
+        <v>626</v>
       </c>
       <c r="T10" s="41">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="U10" s="43">
         <v>0</v>
       </c>
       <c r="V10" s="45">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="W10" s="47">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="X10" s="49">
         <v>0</v>
       </c>
       <c r="Y10" s="51">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="Z10" s="53">
-        <v>136</v>
+        <v>2138</v>
       </c>
       <c r="AA10" s="55">
-        <v>130</v>
+        <v>2003</v>
       </c>
       <c r="AB10" s="57">
-        <v>6</v>
+        <v>135</v>
       </c>
       <c r="AC10" s="59">
-        <v>65</v>
+        <v>1003</v>
       </c>
       <c r="AD10" s="61">
-        <v>65</v>
+        <v>1025</v>
       </c>
       <c r="AE10" s="63">
-        <v>1</v>
+        <v>-22</v>
       </c>
       <c r="AF10" s="65">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="AI10" s="71">
-        <v>23</v>
+        <v>351</v>
       </c>
       <c r="AJ10" s="73">
-        <v>39</v>
+        <v>628</v>
       </c>
       <c r="AK10" s="75">
-        <v>-16</v>
+        <v>-276</v>
       </c>
       <c r="AL10" s="77">
-        <v>5662</v>
+        <v>89970</v>
       </c>
     </row>
     <row r="11">
@@ -2470,67 +2470,67 @@
         <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>1361</v>
+        <v>22154</v>
       </c>
       <c r="C11" s="7">
-        <v>1615</v>
+        <v>26463</v>
       </c>
       <c r="D11" s="9">
-        <v>-254</v>
+        <v>-4309</v>
       </c>
       <c r="E11" s="11">
-        <v>5304</v>
+        <v>87438</v>
       </c>
       <c r="F11" s="13">
-        <v>4603</v>
+        <v>76089</v>
       </c>
       <c r="G11" s="15">
-        <v>701</v>
+        <v>11348</v>
       </c>
       <c r="H11" s="17">
-        <v>441</v>
+        <v>7111</v>
       </c>
       <c r="I11" s="19">
-        <v>877</v>
+        <v>13964</v>
       </c>
       <c r="J11" s="21">
-        <v>-436</v>
+        <v>-6854</v>
       </c>
       <c r="K11" s="23">
-        <v>206</v>
+        <v>3361</v>
       </c>
       <c r="L11" s="25">
-        <v>132</v>
+        <v>2143</v>
       </c>
       <c r="M11" s="27">
-        <v>74</v>
+        <v>1219</v>
       </c>
       <c r="N11" s="29">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="O11" s="31">
-        <v>25</v>
+        <v>396</v>
       </c>
       <c r="P11" s="33">
-        <v>-11</v>
+        <v>-167</v>
       </c>
       <c r="Q11" s="35">
-        <v>47</v>
+        <v>799</v>
       </c>
       <c r="R11" s="37">
-        <v>357</v>
+        <v>5592</v>
       </c>
       <c r="S11" s="39">
-        <v>-309</v>
+        <v>-4793</v>
       </c>
       <c r="T11" s="41">
         <v>0</v>
       </c>
       <c r="U11" s="43">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="V11" s="45">
-        <v>-7</v>
+        <v>-116</v>
       </c>
       <c r="W11" s="47">
         <v>0</v>
@@ -2542,22 +2542,22 @@
         <v>0</v>
       </c>
       <c r="Z11" s="53">
-        <v>78</v>
+        <v>1227</v>
       </c>
       <c r="AA11" s="55">
-        <v>301</v>
+        <v>4882</v>
       </c>
       <c r="AB11" s="57">
-        <v>-223</v>
+        <v>-3655</v>
       </c>
       <c r="AC11" s="59">
-        <v>95</v>
+        <v>1494</v>
       </c>
       <c r="AD11" s="61">
-        <v>54</v>
+        <v>835</v>
       </c>
       <c r="AE11" s="63">
-        <v>41</v>
+        <v>659</v>
       </c>
       <c r="AF11" s="65">
         <v>0</v>
@@ -2569,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="AI11" s="71">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c r="AJ11" s="73">
-        <v>26</v>
+        <v>423</v>
       </c>
       <c r="AK11" s="75">
-        <v>-11</v>
+        <v>-186</v>
       </c>
       <c r="AL11" s="77">
-        <v>7121</v>
+        <v>116939</v>
       </c>
     </row>
     <row r="12">
@@ -2586,94 +2586,94 @@
         <v>24</v>
       </c>
       <c r="B12" s="5">
-        <v>2254</v>
+        <v>40307</v>
       </c>
       <c r="C12" s="7">
-        <v>2638</v>
+        <v>47232</v>
       </c>
       <c r="D12" s="9">
-        <v>-384</v>
+        <v>-6925</v>
       </c>
       <c r="E12" s="11">
-        <v>14592</v>
+        <v>262237</v>
       </c>
       <c r="F12" s="13">
-        <v>13055</v>
+        <v>235093</v>
       </c>
       <c r="G12" s="15">
-        <v>1537</v>
+        <v>27144</v>
       </c>
       <c r="H12" s="17">
-        <v>561</v>
+        <v>10015</v>
       </c>
       <c r="I12" s="19">
-        <v>1715</v>
+        <v>30275</v>
       </c>
       <c r="J12" s="21">
-        <v>-1155</v>
+        <v>-20260</v>
       </c>
       <c r="K12" s="23">
-        <v>175</v>
+        <v>3105</v>
       </c>
       <c r="L12" s="25">
-        <v>236</v>
+        <v>4167</v>
       </c>
       <c r="M12" s="27">
-        <v>-61</v>
+        <v>-1062</v>
       </c>
       <c r="N12" s="29">
-        <v>12</v>
+        <v>214</v>
       </c>
       <c r="O12" s="31">
-        <v>32</v>
+        <v>577</v>
       </c>
       <c r="P12" s="33">
-        <v>-20</v>
+        <v>-363</v>
       </c>
       <c r="Q12" s="35">
-        <v>210</v>
+        <v>3803</v>
       </c>
       <c r="R12" s="37">
-        <v>450</v>
+        <v>8051</v>
       </c>
       <c r="S12" s="39">
-        <v>-240</v>
+        <v>-4248</v>
       </c>
       <c r="T12" s="41">
         <v>0</v>
       </c>
       <c r="U12" s="43">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="V12" s="45">
-        <v>-4</v>
+        <v>-68</v>
       </c>
       <c r="W12" s="47">
         <v>0</v>
       </c>
       <c r="X12" s="49">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="Y12" s="51">
-        <v>-4</v>
+        <v>-65</v>
       </c>
       <c r="Z12" s="53">
-        <v>152</v>
+        <v>2692</v>
       </c>
       <c r="AA12" s="55">
-        <v>515</v>
+        <v>9018</v>
       </c>
       <c r="AB12" s="57">
-        <v>-362</v>
+        <v>-6326</v>
       </c>
       <c r="AC12" s="59">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="AD12" s="61">
-        <v>475</v>
+        <v>8329</v>
       </c>
       <c r="AE12" s="63">
-        <v>-464</v>
+        <v>-8128</v>
       </c>
       <c r="AF12" s="65">
         <v>0</v>
@@ -2685,16 +2685,16 @@
         <v>0</v>
       </c>
       <c r="AI12" s="71">
-        <v>41</v>
+        <v>732</v>
       </c>
       <c r="AJ12" s="73">
-        <v>39</v>
+        <v>691</v>
       </c>
       <c r="AK12" s="75">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="AL12" s="77">
-        <v>17447</v>
+        <v>313291</v>
       </c>
     </row>
     <row r="13">
@@ -2702,94 +2702,94 @@
         <v>25</v>
       </c>
       <c r="B13" s="5">
-        <v>1179</v>
+        <v>19727</v>
       </c>
       <c r="C13" s="7">
-        <v>1664</v>
+        <v>28190</v>
       </c>
       <c r="D13" s="9">
-        <v>-485</v>
+        <v>-8463</v>
       </c>
       <c r="E13" s="11">
-        <v>4499</v>
+        <v>75779</v>
       </c>
       <c r="F13" s="13">
-        <v>4069</v>
+        <v>68666</v>
       </c>
       <c r="G13" s="15">
-        <v>430</v>
+        <v>7113</v>
       </c>
       <c r="H13" s="17">
-        <v>813</v>
+        <v>13911</v>
       </c>
       <c r="I13" s="19">
-        <v>777</v>
+        <v>12886</v>
       </c>
       <c r="J13" s="21">
-        <v>37</v>
+        <v>1025</v>
       </c>
       <c r="K13" s="23">
-        <v>203</v>
+        <v>3438</v>
       </c>
       <c r="L13" s="25">
-        <v>164</v>
+        <v>2755</v>
       </c>
       <c r="M13" s="27">
-        <v>38</v>
+        <v>683</v>
       </c>
       <c r="N13" s="29">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="O13" s="31">
-        <v>22</v>
+        <v>371</v>
       </c>
       <c r="P13" s="33">
-        <v>-9</v>
+        <v>-143</v>
       </c>
       <c r="Q13" s="35">
-        <v>261</v>
+        <v>4492</v>
       </c>
       <c r="R13" s="37">
-        <v>198</v>
+        <v>3310</v>
       </c>
       <c r="S13" s="39">
-        <v>64</v>
+        <v>1181</v>
       </c>
       <c r="T13" s="41">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="U13" s="43">
         <v>0</v>
       </c>
       <c r="V13" s="45">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="W13" s="47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X13" s="49">
         <v>0</v>
       </c>
       <c r="Y13" s="51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z13" s="53">
-        <v>200</v>
+        <v>3475</v>
       </c>
       <c r="AA13" s="55">
-        <v>241</v>
+        <v>3965</v>
       </c>
       <c r="AB13" s="57">
-        <v>-41</v>
+        <v>-491</v>
       </c>
       <c r="AC13" s="59">
-        <v>132</v>
+        <v>2216</v>
       </c>
       <c r="AD13" s="61">
-        <v>152</v>
+        <v>2485</v>
       </c>
       <c r="AE13" s="63">
-        <v>-20</v>
+        <v>-269</v>
       </c>
       <c r="AF13" s="65">
         <v>0</v>
@@ -2801,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="AI13" s="71">
-        <v>29</v>
+        <v>502</v>
       </c>
       <c r="AJ13" s="73">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="AK13" s="75">
-        <v>19</v>
+        <v>325</v>
       </c>
       <c r="AL13" s="77">
-        <v>6521</v>
+        <v>109920</v>
       </c>
     </row>
     <row r="14">
@@ -2818,94 +2818,94 @@
         <v>26</v>
       </c>
       <c r="B14" s="5">
-        <v>3767</v>
+        <v>81239</v>
       </c>
       <c r="C14" s="7">
-        <v>3446</v>
+        <v>75247</v>
       </c>
       <c r="D14" s="9">
-        <v>321</v>
+        <v>5991</v>
       </c>
       <c r="E14" s="11">
-        <v>11039</v>
+        <v>249155</v>
       </c>
       <c r="F14" s="13">
-        <v>11577</v>
+        <v>262414</v>
       </c>
       <c r="G14" s="15">
-        <v>-538</v>
+        <v>-13259</v>
       </c>
       <c r="H14" s="17">
-        <v>2554</v>
+        <v>57277</v>
       </c>
       <c r="I14" s="19">
-        <v>1518</v>
+        <v>32374</v>
       </c>
       <c r="J14" s="21">
-        <v>1036</v>
+        <v>24903</v>
       </c>
       <c r="K14" s="23">
-        <v>416</v>
+        <v>9449</v>
       </c>
       <c r="L14" s="25">
-        <v>396</v>
+        <v>8729</v>
       </c>
       <c r="M14" s="27">
-        <v>20</v>
+        <v>720</v>
       </c>
       <c r="N14" s="29">
-        <v>58</v>
+        <v>1342</v>
       </c>
       <c r="O14" s="31">
-        <v>57</v>
+        <v>1275</v>
       </c>
       <c r="P14" s="33">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="Q14" s="35">
-        <v>628</v>
+        <v>14244</v>
       </c>
       <c r="R14" s="37">
-        <v>352</v>
+        <v>7502</v>
       </c>
       <c r="S14" s="39">
-        <v>276</v>
+        <v>6742</v>
       </c>
       <c r="T14" s="41">
-        <v>11</v>
+        <v>228</v>
       </c>
       <c r="U14" s="43">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="V14" s="45">
-        <v>10</v>
+        <v>209</v>
       </c>
       <c r="W14" s="47">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="X14" s="49">
-        <v>10</v>
+        <v>173</v>
       </c>
       <c r="Y14" s="51">
-        <v>-4</v>
+        <v>-52</v>
       </c>
       <c r="Z14" s="53">
-        <v>823</v>
+        <v>18348</v>
       </c>
       <c r="AA14" s="55">
-        <v>438</v>
+        <v>9212</v>
       </c>
       <c r="AB14" s="57">
-        <v>385</v>
+        <v>9137</v>
       </c>
       <c r="AC14" s="59">
-        <v>613</v>
+        <v>13545</v>
       </c>
       <c r="AD14" s="61">
-        <v>265</v>
+        <v>5464</v>
       </c>
       <c r="AE14" s="63">
-        <v>348</v>
+        <v>8082</v>
       </c>
       <c r="AF14" s="65">
         <v>0</v>
@@ -2917,16 +2917,16 @@
         <v>0</v>
       </c>
       <c r="AI14" s="71">
-        <v>59</v>
+        <v>1362</v>
       </c>
       <c r="AJ14" s="73">
-        <v>879</v>
+        <v>18997</v>
       </c>
       <c r="AK14" s="75">
-        <v>-819</v>
+        <v>-17635</v>
       </c>
       <c r="AL14" s="77">
-        <v>17420</v>
+        <v>389032</v>
       </c>
     </row>
     <row r="15">
@@ -2934,94 +2934,94 @@
         <v>27</v>
       </c>
       <c r="B15" s="5">
-        <v>2210</v>
+        <v>46677</v>
       </c>
       <c r="C15" s="7">
-        <v>2368</v>
+        <v>50555</v>
       </c>
       <c r="D15" s="9">
-        <v>-158</v>
+        <v>-3878</v>
       </c>
       <c r="E15" s="11">
-        <v>9806</v>
+        <v>210126</v>
       </c>
       <c r="F15" s="13">
-        <v>10486</v>
+        <v>224272</v>
       </c>
       <c r="G15" s="15">
-        <v>-680</v>
+        <v>-14146</v>
       </c>
       <c r="H15" s="17">
-        <v>1436</v>
+        <v>30778</v>
       </c>
       <c r="I15" s="19">
-        <v>613</v>
+        <v>13081</v>
       </c>
       <c r="J15" s="21">
-        <v>823</v>
+        <v>17697</v>
       </c>
       <c r="K15" s="23">
-        <v>203</v>
+        <v>4313</v>
       </c>
       <c r="L15" s="25">
-        <v>187</v>
+        <v>3905</v>
       </c>
       <c r="M15" s="27">
-        <v>16</v>
+        <v>407</v>
       </c>
       <c r="N15" s="29">
-        <v>100</v>
+        <v>2140</v>
       </c>
       <c r="O15" s="31">
-        <v>26</v>
+        <v>546</v>
       </c>
       <c r="P15" s="33">
-        <v>73</v>
+        <v>1595</v>
       </c>
       <c r="Q15" s="35">
-        <v>437</v>
+        <v>9390</v>
       </c>
       <c r="R15" s="37">
-        <v>167</v>
+        <v>3572</v>
       </c>
       <c r="S15" s="39">
-        <v>270</v>
+        <v>5818</v>
       </c>
       <c r="T15" s="41">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="U15" s="43">
         <v>0</v>
       </c>
       <c r="V15" s="45">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="W15" s="47">
-        <v>22</v>
+        <v>469</v>
       </c>
       <c r="X15" s="49">
         <v>0</v>
       </c>
       <c r="Y15" s="51">
-        <v>22</v>
+        <v>469</v>
       </c>
       <c r="Z15" s="53">
-        <v>428</v>
+        <v>9248</v>
       </c>
       <c r="AA15" s="55">
-        <v>76</v>
+        <v>1612</v>
       </c>
       <c r="AB15" s="57">
-        <v>351</v>
+        <v>7636</v>
       </c>
       <c r="AC15" s="59">
-        <v>239</v>
+        <v>5041</v>
       </c>
       <c r="AD15" s="61">
-        <v>156</v>
+        <v>3446</v>
       </c>
       <c r="AE15" s="63">
-        <v>82</v>
+        <v>1596</v>
       </c>
       <c r="AF15" s="65">
         <v>0</v>
@@ -3033,16 +3033,16 @@
         <v>0</v>
       </c>
       <c r="AI15" s="71">
-        <v>77</v>
+        <v>1635</v>
       </c>
       <c r="AJ15" s="73">
-        <v>61</v>
+        <v>1308</v>
       </c>
       <c r="AK15" s="75">
-        <v>15</v>
+        <v>327</v>
       </c>
       <c r="AL15" s="77">
-        <v>13529</v>
+        <v>289216</v>
       </c>
     </row>
     <row r="16">
@@ -3050,58 +3050,58 @@
         <v>28</v>
       </c>
       <c r="B16" s="5">
-        <v>1007</v>
+        <v>17273</v>
       </c>
       <c r="C16" s="7">
-        <v>1175</v>
+        <v>20588</v>
       </c>
       <c r="D16" s="9">
-        <v>-168</v>
+        <v>-3314</v>
       </c>
       <c r="E16" s="11">
-        <v>3755</v>
+        <v>65777</v>
       </c>
       <c r="F16" s="13">
-        <v>3573</v>
+        <v>62627</v>
       </c>
       <c r="G16" s="15">
-        <v>181</v>
+        <v>3150</v>
       </c>
       <c r="H16" s="17">
-        <v>535</v>
+        <v>9359</v>
       </c>
       <c r="I16" s="19">
-        <v>514</v>
+        <v>8618</v>
       </c>
       <c r="J16" s="21">
-        <v>20</v>
+        <v>740</v>
       </c>
       <c r="K16" s="23">
-        <v>182</v>
+        <v>3152</v>
       </c>
       <c r="L16" s="25">
-        <v>160</v>
+        <v>2743</v>
       </c>
       <c r="M16" s="27">
-        <v>22</v>
+        <v>409</v>
       </c>
       <c r="N16" s="29">
-        <v>8</v>
+        <v>137</v>
       </c>
       <c r="O16" s="31">
-        <v>55</v>
+        <v>900</v>
       </c>
       <c r="P16" s="33">
-        <v>-47</v>
+        <v>-763</v>
       </c>
       <c r="Q16" s="35">
-        <v>209</v>
+        <v>3697</v>
       </c>
       <c r="R16" s="37">
-        <v>108</v>
+        <v>1808</v>
       </c>
       <c r="S16" s="39">
-        <v>101</v>
+        <v>1889</v>
       </c>
       <c r="T16" s="41">
         <v>0</v>
@@ -3113,31 +3113,31 @@
         <v>0</v>
       </c>
       <c r="W16" s="47">
-        <v>22</v>
+        <v>382</v>
       </c>
       <c r="X16" s="49">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y16" s="51">
-        <v>22</v>
+        <v>378</v>
       </c>
       <c r="Z16" s="53">
-        <v>97</v>
+        <v>1698</v>
       </c>
       <c r="AA16" s="55">
-        <v>130</v>
+        <v>2168</v>
       </c>
       <c r="AB16" s="57">
-        <v>-33</v>
+        <v>-470</v>
       </c>
       <c r="AC16" s="59">
-        <v>16</v>
+        <v>292</v>
       </c>
       <c r="AD16" s="61">
-        <v>62</v>
+        <v>995</v>
       </c>
       <c r="AE16" s="63">
-        <v>-45</v>
+        <v>-703</v>
       </c>
       <c r="AF16" s="65">
         <v>0</v>
@@ -3149,16 +3149,16 @@
         <v>0</v>
       </c>
       <c r="AI16" s="71">
-        <v>16</v>
+        <v>269</v>
       </c>
       <c r="AJ16" s="73">
-        <v>49</v>
+        <v>845</v>
       </c>
       <c r="AK16" s="75">
-        <v>-33</v>
+        <v>-575</v>
       </c>
       <c r="AL16" s="77">
-        <v>5312</v>
+        <v>92678</v>
       </c>
     </row>
     <row r="17">
@@ -3166,67 +3166,67 @@
         <v>29</v>
       </c>
       <c r="B17" s="5">
-        <v>1174</v>
+        <v>21413</v>
       </c>
       <c r="C17" s="7">
-        <v>1184</v>
+        <v>22972</v>
       </c>
       <c r="D17" s="9">
-        <v>-10</v>
+        <v>-1559</v>
       </c>
       <c r="E17" s="11">
-        <v>3696</v>
+        <v>71757</v>
       </c>
       <c r="F17" s="13">
-        <v>3310</v>
+        <v>62815</v>
       </c>
       <c r="G17" s="15">
-        <v>386</v>
+        <v>8942</v>
       </c>
       <c r="H17" s="17">
-        <v>436</v>
+        <v>8089</v>
       </c>
       <c r="I17" s="19">
-        <v>755</v>
+        <v>14148</v>
       </c>
       <c r="J17" s="21">
-        <v>-319</v>
+        <v>-6059</v>
       </c>
       <c r="K17" s="23">
-        <v>293</v>
+        <v>5406</v>
       </c>
       <c r="L17" s="25">
-        <v>230</v>
+        <v>4522</v>
       </c>
       <c r="M17" s="27">
-        <v>63</v>
+        <v>884</v>
       </c>
       <c r="N17" s="29">
-        <v>15</v>
+        <v>284</v>
       </c>
       <c r="O17" s="31">
-        <v>66</v>
+        <v>1169</v>
       </c>
       <c r="P17" s="33">
-        <v>-52</v>
+        <v>-884</v>
       </c>
       <c r="Q17" s="35">
-        <v>31</v>
+        <v>571</v>
       </c>
       <c r="R17" s="37">
-        <v>200</v>
+        <v>3679</v>
       </c>
       <c r="S17" s="39">
-        <v>-169</v>
+        <v>-3109</v>
       </c>
       <c r="T17" s="41">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="U17" s="43">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="V17" s="45">
-        <v>-8</v>
+        <v>-118</v>
       </c>
       <c r="W17" s="47">
         <v>0</v>
@@ -3238,22 +3238,22 @@
         <v>0</v>
       </c>
       <c r="Z17" s="53">
-        <v>51</v>
+        <v>951</v>
       </c>
       <c r="AA17" s="55">
-        <v>88</v>
+        <v>1572</v>
       </c>
       <c r="AB17" s="57">
-        <v>-37</v>
+        <v>-621</v>
       </c>
       <c r="AC17" s="59">
-        <v>42</v>
+        <v>793</v>
       </c>
       <c r="AD17" s="61">
-        <v>159</v>
+        <v>3004</v>
       </c>
       <c r="AE17" s="63">
-        <v>-117</v>
+        <v>-2211</v>
       </c>
       <c r="AF17" s="65">
         <v>0</v>
@@ -3265,16 +3265,16 @@
         <v>0</v>
       </c>
       <c r="AI17" s="71">
-        <v>30</v>
+        <v>529</v>
       </c>
       <c r="AJ17" s="73">
-        <v>86</v>
+        <v>1854</v>
       </c>
       <c r="AK17" s="75">
-        <v>-56</v>
+        <v>-1325</v>
       </c>
       <c r="AL17" s="77">
-        <v>5336</v>
+        <v>101789</v>
       </c>
     </row>
     <row r="18">
@@ -3282,94 +3282,94 @@
         <v>30</v>
       </c>
       <c r="B18" s="5">
-        <v>1490</v>
+        <v>33790</v>
       </c>
       <c r="C18" s="7">
-        <v>1142</v>
+        <v>25713</v>
       </c>
       <c r="D18" s="9">
-        <v>348</v>
+        <v>8077</v>
       </c>
       <c r="E18" s="11">
-        <v>4620</v>
+        <v>104161</v>
       </c>
       <c r="F18" s="13">
-        <v>5311</v>
+        <v>120129</v>
       </c>
       <c r="G18" s="15">
-        <v>-691</v>
+        <v>-15967</v>
       </c>
       <c r="H18" s="17">
-        <v>925</v>
+        <v>21010</v>
       </c>
       <c r="I18" s="19">
-        <v>485</v>
+        <v>10878</v>
       </c>
       <c r="J18" s="21">
-        <v>440</v>
+        <v>10132</v>
       </c>
       <c r="K18" s="23">
-        <v>238</v>
+        <v>5366</v>
       </c>
       <c r="L18" s="25">
-        <v>196</v>
+        <v>4399</v>
       </c>
       <c r="M18" s="27">
-        <v>42</v>
+        <v>967</v>
       </c>
       <c r="N18" s="29">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="O18" s="31">
-        <v>28</v>
+        <v>607</v>
       </c>
       <c r="P18" s="33">
-        <v>-14</v>
+        <v>-280</v>
       </c>
       <c r="Q18" s="35">
-        <v>257</v>
+        <v>5906</v>
       </c>
       <c r="R18" s="37">
-        <v>50</v>
+        <v>1100</v>
       </c>
       <c r="S18" s="39">
-        <v>207</v>
+        <v>4805</v>
       </c>
       <c r="T18" s="41">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="U18" s="43">
         <v>0</v>
       </c>
       <c r="V18" s="45">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="W18" s="47">
-        <v>10</v>
+        <v>239</v>
       </c>
       <c r="X18" s="49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Y18" s="51">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="Z18" s="53">
-        <v>389</v>
+        <v>8787</v>
       </c>
       <c r="AA18" s="55">
-        <v>65</v>
+        <v>1451</v>
       </c>
       <c r="AB18" s="57">
-        <v>323</v>
+        <v>7336</v>
       </c>
       <c r="AC18" s="59">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="AD18" s="61">
-        <v>145</v>
+        <v>3315</v>
       </c>
       <c r="AE18" s="63">
-        <v>-132</v>
+        <v>-3024</v>
       </c>
       <c r="AF18" s="65">
         <v>0</v>
@@ -3381,16 +3381,16 @@
         <v>0</v>
       </c>
       <c r="AI18" s="71">
-        <v>29</v>
+        <v>643</v>
       </c>
       <c r="AJ18" s="73">
-        <v>126</v>
+        <v>2885</v>
       </c>
       <c r="AK18" s="75">
-        <v>-98</v>
+        <v>-2242</v>
       </c>
       <c r="AL18" s="77">
-        <v>7063</v>
+        <v>159605</v>
       </c>
     </row>
     <row r="19">
@@ -3398,58 +3398,58 @@
         <v>31</v>
       </c>
       <c r="B19" s="5">
-        <v>1006</v>
+        <v>22530</v>
       </c>
       <c r="C19" s="7">
-        <v>1967</v>
+        <v>43763</v>
       </c>
       <c r="D19" s="9">
-        <v>-961</v>
+        <v>-21233</v>
       </c>
       <c r="E19" s="11">
-        <v>5940</v>
+        <v>132299</v>
       </c>
       <c r="F19" s="13">
-        <v>4861</v>
+        <v>108546</v>
       </c>
       <c r="G19" s="15">
-        <v>1078</v>
+        <v>23753</v>
       </c>
       <c r="H19" s="17">
-        <v>528</v>
+        <v>11854</v>
       </c>
       <c r="I19" s="19">
-        <v>659</v>
+        <v>14680</v>
       </c>
       <c r="J19" s="21">
-        <v>-131</v>
+        <v>-2827</v>
       </c>
       <c r="K19" s="23">
-        <v>140</v>
+        <v>3131</v>
       </c>
       <c r="L19" s="25">
-        <v>175</v>
+        <v>3911</v>
       </c>
       <c r="M19" s="27">
-        <v>-35</v>
+        <v>-780</v>
       </c>
       <c r="N19" s="29">
-        <v>44</v>
+        <v>997</v>
       </c>
       <c r="O19" s="31">
-        <v>21</v>
+        <v>459</v>
       </c>
       <c r="P19" s="33">
-        <v>24</v>
+        <v>538</v>
       </c>
       <c r="Q19" s="35">
-        <v>78</v>
+        <v>1741</v>
       </c>
       <c r="R19" s="37">
-        <v>252</v>
+        <v>5648</v>
       </c>
       <c r="S19" s="39">
-        <v>-174</v>
+        <v>-3906</v>
       </c>
       <c r="T19" s="41">
         <v>0</v>
@@ -3470,22 +3470,22 @@
         <v>0</v>
       </c>
       <c r="Z19" s="53">
-        <v>84</v>
+        <v>1875</v>
       </c>
       <c r="AA19" s="55">
-        <v>120</v>
+        <v>2640</v>
       </c>
       <c r="AB19" s="57">
-        <v>-36</v>
+        <v>-765</v>
       </c>
       <c r="AC19" s="59">
-        <v>182</v>
+        <v>4109</v>
       </c>
       <c r="AD19" s="61">
-        <v>92</v>
+        <v>2023</v>
       </c>
       <c r="AE19" s="63">
-        <v>90</v>
+        <v>2086</v>
       </c>
       <c r="AF19" s="65">
         <v>0</v>
@@ -3497,16 +3497,16 @@
         <v>0</v>
       </c>
       <c r="AI19" s="71">
-        <v>37</v>
+        <v>824</v>
       </c>
       <c r="AJ19" s="73">
-        <v>23</v>
+        <v>518</v>
       </c>
       <c r="AK19" s="75">
-        <v>13</v>
+        <v>306</v>
       </c>
       <c r="AL19" s="77">
-        <v>7511</v>
+        <v>167507</v>
       </c>
     </row>
     <row r="20">
@@ -3514,58 +3514,58 @@
         <v>32</v>
       </c>
       <c r="B20" s="5">
-        <v>2977</v>
+        <v>67923</v>
       </c>
       <c r="C20" s="7">
-        <v>2153</v>
+        <v>50378</v>
       </c>
       <c r="D20" s="9">
-        <v>824</v>
+        <v>17545</v>
       </c>
       <c r="E20" s="11">
-        <v>3673</v>
+        <v>85702</v>
       </c>
       <c r="F20" s="13">
-        <v>3001</v>
+        <v>70306</v>
       </c>
       <c r="G20" s="15">
-        <v>672</v>
+        <v>15396</v>
       </c>
       <c r="H20" s="17">
-        <v>381</v>
+        <v>8952</v>
       </c>
       <c r="I20" s="19">
-        <v>1039</v>
+        <v>24155</v>
       </c>
       <c r="J20" s="21">
-        <v>-658</v>
+        <v>-15203</v>
       </c>
       <c r="K20" s="23">
-        <v>218</v>
+        <v>5093</v>
       </c>
       <c r="L20" s="25">
-        <v>167</v>
+        <v>3930</v>
       </c>
       <c r="M20" s="27">
-        <v>50</v>
+        <v>1164</v>
       </c>
       <c r="N20" s="29">
-        <v>17</v>
+        <v>388</v>
       </c>
       <c r="O20" s="31">
-        <v>72</v>
+        <v>1666</v>
       </c>
       <c r="P20" s="33">
-        <v>-56</v>
+        <v>-1278</v>
       </c>
       <c r="Q20" s="35">
-        <v>43</v>
+        <v>1010</v>
       </c>
       <c r="R20" s="37">
-        <v>180</v>
+        <v>4182</v>
       </c>
       <c r="S20" s="39">
-        <v>-138</v>
+        <v>-3172</v>
       </c>
       <c r="T20" s="41">
         <v>0</v>
@@ -3580,28 +3580,28 @@
         <v>0</v>
       </c>
       <c r="X20" s="49">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Y20" s="51">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="Z20" s="53">
-        <v>83</v>
+        <v>1962</v>
       </c>
       <c r="AA20" s="55">
-        <v>547</v>
+        <v>12696</v>
       </c>
       <c r="AB20" s="57">
-        <v>-464</v>
+        <v>-10734</v>
       </c>
       <c r="AC20" s="59">
-        <v>21</v>
+        <v>498</v>
       </c>
       <c r="AD20" s="61">
-        <v>72</v>
+        <v>1669</v>
       </c>
       <c r="AE20" s="63">
-        <v>-51</v>
+        <v>-1171</v>
       </c>
       <c r="AF20" s="65">
         <v>0</v>
@@ -3613,16 +3613,16 @@
         <v>0</v>
       </c>
       <c r="AI20" s="71">
-        <v>17</v>
+        <v>411</v>
       </c>
       <c r="AJ20" s="73">
-        <v>855</v>
+        <v>18149</v>
       </c>
       <c r="AK20" s="75">
-        <v>-838</v>
+        <v>-17738</v>
       </c>
       <c r="AL20" s="77">
-        <v>7048</v>
+        <v>162988</v>
       </c>
     </row>
     <row r="21">
@@ -3630,94 +3630,94 @@
         <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>1427</v>
+        <v>33413</v>
       </c>
       <c r="C21" s="7">
-        <v>1441</v>
+        <v>34207</v>
       </c>
       <c r="D21" s="9">
-        <v>-14</v>
+        <v>-794</v>
       </c>
       <c r="E21" s="11">
-        <v>4371</v>
+        <v>103363</v>
       </c>
       <c r="F21" s="13">
-        <v>3969</v>
+        <v>93603</v>
       </c>
       <c r="G21" s="15">
-        <v>403</v>
+        <v>9760</v>
       </c>
       <c r="H21" s="17">
-        <v>419</v>
+        <v>9982</v>
       </c>
       <c r="I21" s="19">
-        <v>832</v>
+        <v>19521</v>
       </c>
       <c r="J21" s="21">
-        <v>-413</v>
+        <v>-9539</v>
       </c>
       <c r="K21" s="23">
-        <v>150</v>
+        <v>3530</v>
       </c>
       <c r="L21" s="25">
-        <v>219</v>
+        <v>5167</v>
       </c>
       <c r="M21" s="27">
-        <v>-70</v>
+        <v>-1637</v>
       </c>
       <c r="N21" s="29">
-        <v>9</v>
+        <v>216</v>
       </c>
       <c r="O21" s="31">
-        <v>88</v>
+        <v>2065</v>
       </c>
       <c r="P21" s="33">
-        <v>-79</v>
+        <v>-1849</v>
       </c>
       <c r="Q21" s="35">
-        <v>155</v>
+        <v>3726</v>
       </c>
       <c r="R21" s="37">
-        <v>137</v>
+        <v>3239</v>
       </c>
       <c r="S21" s="39">
-        <v>18</v>
+        <v>487</v>
       </c>
       <c r="T21" s="41">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="U21" s="43">
         <v>0</v>
       </c>
       <c r="V21" s="45">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="W21" s="47">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="X21" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="51">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="Z21" s="53">
-        <v>76</v>
+        <v>1827</v>
       </c>
       <c r="AA21" s="55">
-        <v>222</v>
+        <v>5316</v>
       </c>
       <c r="AB21" s="57">
-        <v>-146</v>
+        <v>-3489</v>
       </c>
       <c r="AC21" s="59">
-        <v>22</v>
+        <v>534</v>
       </c>
       <c r="AD21" s="61">
-        <v>165</v>
+        <v>3732</v>
       </c>
       <c r="AE21" s="63">
-        <v>-143</v>
+        <v>-3199</v>
       </c>
       <c r="AF21" s="65">
         <v>0</v>
@@ -3729,16 +3729,16 @@
         <v>0</v>
       </c>
       <c r="AI21" s="71">
-        <v>43</v>
+        <v>989</v>
       </c>
       <c r="AJ21" s="73">
-        <v>18</v>
+        <v>416</v>
       </c>
       <c r="AK21" s="75">
-        <v>25</v>
+        <v>573</v>
       </c>
       <c r="AL21" s="77">
-        <v>6260</v>
+        <v>147747</v>
       </c>
     </row>
     <row r="22">
@@ -3746,58 +3746,58 @@
         <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>1253</v>
+        <v>34375</v>
       </c>
       <c r="C22" s="7">
-        <v>1455</v>
+        <v>40113</v>
       </c>
       <c r="D22" s="9">
-        <v>-202</v>
+        <v>-5738</v>
       </c>
       <c r="E22" s="11">
-        <v>6355</v>
+        <v>176279</v>
       </c>
       <c r="F22" s="13">
-        <v>5892</v>
+        <v>163876</v>
       </c>
       <c r="G22" s="15">
-        <v>463</v>
+        <v>12403</v>
       </c>
       <c r="H22" s="17">
-        <v>512</v>
+        <v>14308</v>
       </c>
       <c r="I22" s="19">
-        <v>736</v>
+        <v>19999</v>
       </c>
       <c r="J22" s="21">
-        <v>-223</v>
+        <v>-5691</v>
       </c>
       <c r="K22" s="23">
-        <v>146</v>
+        <v>3973</v>
       </c>
       <c r="L22" s="25">
-        <v>197</v>
+        <v>5504</v>
       </c>
       <c r="M22" s="27">
-        <v>-51</v>
+        <v>-1531</v>
       </c>
       <c r="N22" s="29">
-        <v>21</v>
+        <v>591</v>
       </c>
       <c r="O22" s="31">
-        <v>25</v>
+        <v>702</v>
       </c>
       <c r="P22" s="33">
-        <v>-4</v>
+        <v>-111</v>
       </c>
       <c r="Q22" s="35">
-        <v>81</v>
+        <v>2331</v>
       </c>
       <c r="R22" s="37">
-        <v>116</v>
+        <v>3175</v>
       </c>
       <c r="S22" s="39">
-        <v>-35</v>
+        <v>-844</v>
       </c>
       <c r="T22" s="41">
         <v>0</v>
@@ -3809,31 +3809,31 @@
         <v>0</v>
       </c>
       <c r="W22" s="47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X22" s="49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y22" s="51">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Z22" s="53">
-        <v>211</v>
+        <v>5968</v>
       </c>
       <c r="AA22" s="55">
-        <v>144</v>
+        <v>3863</v>
       </c>
       <c r="AB22" s="57">
-        <v>67</v>
+        <v>2105</v>
       </c>
       <c r="AC22" s="59">
-        <v>52</v>
+        <v>1443</v>
       </c>
       <c r="AD22" s="61">
-        <v>253</v>
+        <v>6751</v>
       </c>
       <c r="AE22" s="63">
-        <v>-201</v>
+        <v>-5309</v>
       </c>
       <c r="AF22" s="65">
         <v>0</v>
@@ -3845,16 +3845,16 @@
         <v>0</v>
       </c>
       <c r="AI22" s="71">
-        <v>27</v>
+        <v>778</v>
       </c>
       <c r="AJ22" s="73">
-        <v>65</v>
+        <v>1751</v>
       </c>
       <c r="AK22" s="75">
-        <v>-37</v>
+        <v>-974</v>
       </c>
       <c r="AL22" s="77">
-        <v>8147</v>
+        <v>225739</v>
       </c>
     </row>
     <row r="23">
@@ -3862,58 +3862,58 @@
         <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>2502</v>
+        <v>72804</v>
       </c>
       <c r="C23" s="7">
-        <v>3368</v>
+        <v>96639</v>
       </c>
       <c r="D23" s="9">
-        <v>-867</v>
+        <v>-23835</v>
       </c>
       <c r="E23" s="11">
-        <v>12592</v>
+        <v>365952</v>
       </c>
       <c r="F23" s="13">
-        <v>12341</v>
+        <v>359926</v>
       </c>
       <c r="G23" s="15">
-        <v>251</v>
+        <v>6025</v>
       </c>
       <c r="H23" s="17">
-        <v>3886</v>
+        <v>108007</v>
       </c>
       <c r="I23" s="19">
-        <v>3290</v>
+        <v>90676</v>
       </c>
       <c r="J23" s="21">
-        <v>597</v>
+        <v>17331</v>
       </c>
       <c r="K23" s="23">
-        <v>298</v>
+        <v>8422</v>
       </c>
       <c r="L23" s="25">
-        <v>545</v>
+        <v>15273</v>
       </c>
       <c r="M23" s="27">
-        <v>-247</v>
+        <v>-6852</v>
       </c>
       <c r="N23" s="29">
-        <v>200</v>
+        <v>5559</v>
       </c>
       <c r="O23" s="31">
-        <v>42</v>
+        <v>1179</v>
       </c>
       <c r="P23" s="33">
-        <v>158</v>
+        <v>4380</v>
       </c>
       <c r="Q23" s="35">
-        <v>1009</v>
+        <v>28256</v>
       </c>
       <c r="R23" s="37">
-        <v>356</v>
+        <v>9987</v>
       </c>
       <c r="S23" s="39">
-        <v>652</v>
+        <v>18269</v>
       </c>
       <c r="T23" s="41">
         <v>0</v>
@@ -3925,31 +3925,31 @@
         <v>0</v>
       </c>
       <c r="W23" s="47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X23" s="49">
         <v>0</v>
       </c>
       <c r="Y23" s="51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z23" s="53">
-        <v>1032</v>
+        <v>29293</v>
       </c>
       <c r="AA23" s="55">
-        <v>100</v>
+        <v>2814</v>
       </c>
       <c r="AB23" s="57">
-        <v>932</v>
+        <v>26479</v>
       </c>
       <c r="AC23" s="59">
-        <v>1347</v>
+        <v>36467</v>
       </c>
       <c r="AD23" s="61">
-        <v>2247</v>
+        <v>61423</v>
       </c>
       <c r="AE23" s="63">
-        <v>-900</v>
+        <v>-24956</v>
       </c>
       <c r="AF23" s="65">
         <v>0</v>
@@ -3961,16 +3961,16 @@
         <v>0</v>
       </c>
       <c r="AI23" s="71">
-        <v>169</v>
+        <v>4820</v>
       </c>
       <c r="AJ23" s="73">
-        <v>150</v>
+        <v>4341</v>
       </c>
       <c r="AK23" s="75">
-        <v>19</v>
+        <v>479</v>
       </c>
       <c r="AL23" s="77">
-        <v>19148</v>
+        <v>551582</v>
       </c>
     </row>
     <row r="24">
@@ -3978,58 +3978,58 @@
         <v>36</v>
       </c>
       <c r="B24" s="5">
-        <v>1516</v>
+        <v>43186</v>
       </c>
       <c r="C24" s="7">
-        <v>1209</v>
+        <v>34311</v>
       </c>
       <c r="D24" s="9">
-        <v>307</v>
+        <v>8874</v>
       </c>
       <c r="E24" s="11">
-        <v>6915</v>
+        <v>197273</v>
       </c>
       <c r="F24" s="13">
-        <v>6957</v>
+        <v>198344</v>
       </c>
       <c r="G24" s="15">
-        <v>-42</v>
+        <v>-1070</v>
       </c>
       <c r="H24" s="17">
-        <v>424</v>
+        <v>11944</v>
       </c>
       <c r="I24" s="19">
-        <v>746</v>
+        <v>21392</v>
       </c>
       <c r="J24" s="21">
-        <v>-322</v>
+        <v>-9448</v>
       </c>
       <c r="K24" s="23">
-        <v>59</v>
+        <v>1675</v>
       </c>
       <c r="L24" s="25">
-        <v>40</v>
+        <v>1100</v>
       </c>
       <c r="M24" s="27">
-        <v>19</v>
+        <v>575</v>
       </c>
       <c r="N24" s="29">
-        <v>31</v>
+        <v>886</v>
       </c>
       <c r="O24" s="31">
-        <v>12</v>
+        <v>332</v>
       </c>
       <c r="P24" s="33">
-        <v>20</v>
+        <v>554</v>
       </c>
       <c r="Q24" s="35">
-        <v>51</v>
+        <v>1437</v>
       </c>
       <c r="R24" s="37">
-        <v>134</v>
+        <v>3860</v>
       </c>
       <c r="S24" s="39">
-        <v>-83</v>
+        <v>-2422</v>
       </c>
       <c r="T24" s="41">
         <v>0</v>
@@ -4050,22 +4050,22 @@
         <v>0</v>
       </c>
       <c r="Z24" s="53">
-        <v>263</v>
+        <v>7380</v>
       </c>
       <c r="AA24" s="55">
-        <v>82</v>
+        <v>2297</v>
       </c>
       <c r="AB24" s="57">
-        <v>181</v>
+        <v>5083</v>
       </c>
       <c r="AC24" s="59">
-        <v>20</v>
+        <v>566</v>
       </c>
       <c r="AD24" s="61">
-        <v>479</v>
+        <v>13804</v>
       </c>
       <c r="AE24" s="63">
-        <v>-459</v>
+        <v>-13238</v>
       </c>
       <c r="AF24" s="65">
         <v>0</v>
@@ -4077,16 +4077,16 @@
         <v>0</v>
       </c>
       <c r="AI24" s="71">
-        <v>102</v>
+        <v>2907</v>
       </c>
       <c r="AJ24" s="73">
-        <v>44</v>
+        <v>1263</v>
       </c>
       <c r="AK24" s="75">
-        <v>57</v>
+        <v>1644</v>
       </c>
       <c r="AL24" s="77">
-        <v>8956</v>
+        <v>255310</v>
       </c>
     </row>
     <row r="25">
@@ -4094,67 +4094,67 @@
         <v>37</v>
       </c>
       <c r="B25" s="5">
-        <v>1986</v>
+        <v>58008</v>
       </c>
       <c r="C25" s="7">
-        <v>1586</v>
+        <v>46659</v>
       </c>
       <c r="D25" s="9">
-        <v>400</v>
+        <v>11349</v>
       </c>
       <c r="E25" s="11">
-        <v>12505</v>
+        <v>369909</v>
       </c>
       <c r="F25" s="13">
-        <v>12690</v>
+        <v>374540</v>
       </c>
       <c r="G25" s="15">
-        <v>-185</v>
+        <v>-4630</v>
       </c>
       <c r="H25" s="17">
-        <v>1074</v>
+        <v>31565</v>
       </c>
       <c r="I25" s="19">
-        <v>1256</v>
+        <v>37298</v>
       </c>
       <c r="J25" s="21">
-        <v>-182</v>
+        <v>-5733</v>
       </c>
       <c r="K25" s="23">
-        <v>114</v>
+        <v>3346</v>
       </c>
       <c r="L25" s="25">
-        <v>93</v>
+        <v>2719</v>
       </c>
       <c r="M25" s="27">
-        <v>22</v>
+        <v>627</v>
       </c>
       <c r="N25" s="29">
-        <v>45</v>
+        <v>1271</v>
       </c>
       <c r="O25" s="31">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="P25" s="33">
-        <v>42</v>
+        <v>1202</v>
       </c>
       <c r="Q25" s="35">
-        <v>243</v>
+        <v>7138</v>
       </c>
       <c r="R25" s="37">
-        <v>150</v>
+        <v>4507</v>
       </c>
       <c r="S25" s="39">
-        <v>93</v>
+        <v>2631</v>
       </c>
       <c r="T25" s="41">
         <v>0</v>
       </c>
       <c r="U25" s="43">
-        <v>16</v>
+        <v>396</v>
       </c>
       <c r="V25" s="45">
-        <v>-16</v>
+        <v>-396</v>
       </c>
       <c r="W25" s="47">
         <v>0</v>
@@ -4166,22 +4166,22 @@
         <v>0</v>
       </c>
       <c r="Z25" s="53">
-        <v>538</v>
+        <v>15809</v>
       </c>
       <c r="AA25" s="55">
-        <v>39</v>
+        <v>1103</v>
       </c>
       <c r="AB25" s="57">
-        <v>500</v>
+        <v>14706</v>
       </c>
       <c r="AC25" s="59">
-        <v>134</v>
+        <v>4002</v>
       </c>
       <c r="AD25" s="61">
-        <v>957</v>
+        <v>28504</v>
       </c>
       <c r="AE25" s="63">
-        <v>-823</v>
+        <v>-24502</v>
       </c>
       <c r="AF25" s="65">
         <v>0</v>
@@ -4193,16 +4193,16 @@
         <v>0</v>
       </c>
       <c r="AI25" s="71">
-        <v>109</v>
+        <v>3171</v>
       </c>
       <c r="AJ25" s="73">
-        <v>141</v>
+        <v>4157</v>
       </c>
       <c r="AK25" s="75">
-        <v>-32</v>
+        <v>-986</v>
       </c>
       <c r="AL25" s="77">
-        <v>15673</v>
+        <v>462653</v>
       </c>
     </row>
     <row r="26">
@@ -4210,58 +4210,58 @@
         <v>38</v>
       </c>
       <c r="B26" s="5">
-        <v>3524</v>
+        <v>101715</v>
       </c>
       <c r="C26" s="7">
-        <v>3611</v>
+        <v>106686</v>
       </c>
       <c r="D26" s="9">
-        <v>-87</v>
+        <v>-4971</v>
       </c>
       <c r="E26" s="11">
-        <v>11077</v>
+        <v>329456</v>
       </c>
       <c r="F26" s="13">
-        <v>9171</v>
+        <v>273165</v>
       </c>
       <c r="G26" s="15">
-        <v>1906</v>
+        <v>56291</v>
       </c>
       <c r="H26" s="17">
-        <v>1050</v>
+        <v>31393</v>
       </c>
       <c r="I26" s="19">
-        <v>2929</v>
+        <v>84392</v>
       </c>
       <c r="J26" s="21">
-        <v>-1879</v>
+        <v>-52999</v>
       </c>
       <c r="K26" s="23">
-        <v>41</v>
+        <v>1219</v>
       </c>
       <c r="L26" s="25">
-        <v>271</v>
+        <v>8107</v>
       </c>
       <c r="M26" s="27">
-        <v>-230</v>
+        <v>-6889</v>
       </c>
       <c r="N26" s="29">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="O26" s="31">
-        <v>6</v>
+        <v>175</v>
       </c>
       <c r="P26" s="33">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="Q26" s="35">
-        <v>152</v>
+        <v>4520</v>
       </c>
       <c r="R26" s="37">
-        <v>2558</v>
+        <v>73280</v>
       </c>
       <c r="S26" s="39">
-        <v>-2406</v>
+        <v>-68760</v>
       </c>
       <c r="T26" s="41">
         <v>0</v>
@@ -4282,22 +4282,22 @@
         <v>0</v>
       </c>
       <c r="Z26" s="53">
-        <v>514</v>
+        <v>15251</v>
       </c>
       <c r="AA26" s="55">
-        <v>12</v>
+        <v>350</v>
       </c>
       <c r="AB26" s="57">
-        <v>502</v>
+        <v>14902</v>
       </c>
       <c r="AC26" s="59">
-        <v>334</v>
+        <v>10134</v>
       </c>
       <c r="AD26" s="61">
-        <v>82</v>
+        <v>2480</v>
       </c>
       <c r="AE26" s="63">
-        <v>252</v>
+        <v>7654</v>
       </c>
       <c r="AF26" s="65">
         <v>0</v>
@@ -4309,16 +4309,16 @@
         <v>0</v>
       </c>
       <c r="AI26" s="71">
-        <v>117</v>
+        <v>3387</v>
       </c>
       <c r="AJ26" s="73">
-        <v>56</v>
+        <v>1708</v>
       </c>
       <c r="AK26" s="75">
-        <v>60</v>
+        <v>1679</v>
       </c>
       <c r="AL26" s="77">
-        <v>15768</v>
+        <v>465951</v>
       </c>
     </row>
     <row r="27">
@@ -4326,94 +4326,94 @@
         <v>39</v>
       </c>
       <c r="B27" s="5">
-        <v>4356</v>
+        <v>137646</v>
       </c>
       <c r="C27" s="7">
-        <v>4277</v>
+        <v>137040</v>
       </c>
       <c r="D27" s="9">
-        <v>78</v>
+        <v>606</v>
       </c>
       <c r="E27" s="11">
-        <v>30306</v>
+        <v>1004241</v>
       </c>
       <c r="F27" s="13">
-        <v>27190</v>
+        <v>909316</v>
       </c>
       <c r="G27" s="15">
-        <v>3116</v>
+        <v>94925</v>
       </c>
       <c r="H27" s="17">
-        <v>4361</v>
+        <v>133287</v>
       </c>
       <c r="I27" s="19">
-        <v>2723</v>
+        <v>83389</v>
       </c>
       <c r="J27" s="21">
-        <v>1638</v>
+        <v>49898</v>
       </c>
       <c r="K27" s="23">
-        <v>1424</v>
+        <v>43134</v>
       </c>
       <c r="L27" s="25">
-        <v>1371</v>
+        <v>41788</v>
       </c>
       <c r="M27" s="27">
-        <v>53</v>
+        <v>1346</v>
       </c>
       <c r="N27" s="29">
-        <v>133</v>
+        <v>4100</v>
       </c>
       <c r="O27" s="31">
-        <v>29</v>
+        <v>897</v>
       </c>
       <c r="P27" s="33">
-        <v>104</v>
+        <v>3204</v>
       </c>
       <c r="Q27" s="35">
-        <v>597</v>
+        <v>18323</v>
       </c>
       <c r="R27" s="37">
-        <v>353</v>
+        <v>10864</v>
       </c>
       <c r="S27" s="39">
-        <v>245</v>
+        <v>7458</v>
       </c>
       <c r="T27" s="41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="U27" s="43">
         <v>0</v>
       </c>
       <c r="V27" s="45">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W27" s="47">
         <v>0</v>
       </c>
       <c r="X27" s="49">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="Y27" s="51">
-        <v>-1</v>
+        <v>-36</v>
       </c>
       <c r="Z27" s="53">
-        <v>675</v>
+        <v>21344</v>
       </c>
       <c r="AA27" s="55">
-        <v>25</v>
+        <v>770</v>
       </c>
       <c r="AB27" s="57">
-        <v>650</v>
+        <v>20574</v>
       </c>
       <c r="AC27" s="59">
-        <v>1531</v>
+        <v>46375</v>
       </c>
       <c r="AD27" s="61">
-        <v>945</v>
+        <v>29033</v>
       </c>
       <c r="AE27" s="63">
-        <v>586</v>
+        <v>17342</v>
       </c>
       <c r="AF27" s="65">
         <v>0</v>
@@ -4425,16 +4425,16 @@
         <v>0</v>
       </c>
       <c r="AI27" s="71">
-        <v>350</v>
+        <v>10793</v>
       </c>
       <c r="AJ27" s="73">
-        <v>5181</v>
+        <v>156222</v>
       </c>
       <c r="AK27" s="75">
-        <v>-4832</v>
+        <v>-145429</v>
       </c>
       <c r="AL27" s="77">
-        <v>39372</v>
+        <v>1285967</v>
       </c>
     </row>
     <row r="28">
@@ -4442,94 +4442,94 @@
         <v>40</v>
       </c>
       <c r="B28" s="5">
-        <v>1619</v>
+        <v>51585</v>
       </c>
       <c r="C28" s="7">
+        <v>38911</v>
+      </c>
+      <c r="D28" s="9">
+        <v>12674</v>
+      </c>
+      <c r="E28" s="11">
+        <v>541805</v>
+      </c>
+      <c r="F28" s="13">
+        <v>548083</v>
+      </c>
+      <c r="G28" s="15">
+        <v>-6279</v>
+      </c>
+      <c r="H28" s="17">
+        <v>26914</v>
+      </c>
+      <c r="I28" s="19">
+        <v>15595</v>
+      </c>
+      <c r="J28" s="21">
+        <v>11320</v>
+      </c>
+      <c r="K28" s="23">
+        <v>1803</v>
+      </c>
+      <c r="L28" s="25">
+        <v>2066</v>
+      </c>
+      <c r="M28" s="27">
+        <v>-263</v>
+      </c>
+      <c r="N28" s="29">
+        <v>1583</v>
+      </c>
+      <c r="O28" s="31">
+        <v>87</v>
+      </c>
+      <c r="P28" s="33">
+        <v>1496</v>
+      </c>
+      <c r="Q28" s="35">
+        <v>4386</v>
+      </c>
+      <c r="R28" s="37">
+        <v>2379</v>
+      </c>
+      <c r="S28" s="39">
+        <v>2007</v>
+      </c>
+      <c r="T28" s="41">
+        <v>0</v>
+      </c>
+      <c r="U28" s="43">
+        <v>0</v>
+      </c>
+      <c r="V28" s="45">
+        <v>0</v>
+      </c>
+      <c r="W28" s="47">
+        <v>16</v>
+      </c>
+      <c r="X28" s="49">
+        <v>16</v>
+      </c>
+      <c r="Y28" s="51">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="53">
+        <v>17908</v>
+      </c>
+      <c r="AA28" s="55">
+        <v>176</v>
+      </c>
+      <c r="AB28" s="57">
+        <v>17732</v>
+      </c>
+      <c r="AC28" s="59">
         <v>1218</v>
       </c>
-      <c r="D28" s="9">
-        <v>401</v>
-      </c>
-      <c r="E28" s="11">
-        <v>17132</v>
-      </c>
-      <c r="F28" s="13">
-        <v>17342</v>
-      </c>
-      <c r="G28" s="15">
-        <v>-209</v>
-      </c>
-      <c r="H28" s="17">
-        <v>867</v>
-      </c>
-      <c r="I28" s="19">
-        <v>493</v>
-      </c>
-      <c r="J28" s="21">
-        <v>374</v>
-      </c>
-      <c r="K28" s="23">
-        <v>59</v>
-      </c>
-      <c r="L28" s="25">
-        <v>65</v>
-      </c>
-      <c r="M28" s="27">
-        <v>-6</v>
-      </c>
-      <c r="N28" s="29">
-        <v>51</v>
-      </c>
-      <c r="O28" s="31">
-        <v>3</v>
-      </c>
-      <c r="P28" s="33">
-        <v>48</v>
-      </c>
-      <c r="Q28" s="35">
-        <v>137</v>
-      </c>
-      <c r="R28" s="37">
-        <v>75</v>
-      </c>
-      <c r="S28" s="39">
-        <v>62</v>
-      </c>
-      <c r="T28" s="41">
-        <v>0</v>
-      </c>
-      <c r="U28" s="43">
-        <v>0</v>
-      </c>
-      <c r="V28" s="45">
-        <v>0</v>
-      </c>
-      <c r="W28" s="47">
-        <v>1</v>
-      </c>
-      <c r="X28" s="49">
-        <v>1</v>
-      </c>
-      <c r="Y28" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="53">
-        <v>580</v>
-      </c>
-      <c r="AA28" s="55">
-        <v>6</v>
-      </c>
-      <c r="AB28" s="57">
-        <v>575</v>
-      </c>
-      <c r="AC28" s="59">
-        <v>39</v>
-      </c>
       <c r="AD28" s="61">
-        <v>344</v>
+        <v>10871</v>
       </c>
       <c r="AE28" s="63">
-        <v>-305</v>
+        <v>-9653</v>
       </c>
       <c r="AF28" s="65">
         <v>0</v>
@@ -4541,16 +4541,16 @@
         <v>0</v>
       </c>
       <c r="AI28" s="71">
-        <v>105</v>
+        <v>3217</v>
       </c>
       <c r="AJ28" s="73">
-        <v>671</v>
+        <v>20932</v>
       </c>
       <c r="AK28" s="75">
-        <v>-566</v>
+        <v>-17715</v>
       </c>
       <c r="AL28" s="77">
-        <v>19724</v>
+        <v>623520</v>
       </c>
     </row>
     <row r="29">
@@ -4558,58 +4558,58 @@
         <v>41</v>
       </c>
       <c r="B29" s="5">
-        <v>493</v>
+        <v>13586</v>
       </c>
       <c r="C29" s="7">
-        <v>523</v>
+        <v>14533</v>
       </c>
       <c r="D29" s="9">
-        <v>-30</v>
+        <v>-947</v>
       </c>
       <c r="E29" s="11">
-        <v>9509</v>
+        <v>263415</v>
       </c>
       <c r="F29" s="13">
-        <v>9455</v>
+        <v>262649</v>
       </c>
       <c r="G29" s="15">
-        <v>54</v>
+        <v>766</v>
       </c>
       <c r="H29" s="17">
-        <v>660</v>
+        <v>18535</v>
       </c>
       <c r="I29" s="19">
-        <v>508</v>
+        <v>13569</v>
       </c>
       <c r="J29" s="21">
-        <v>152</v>
+        <v>4966</v>
       </c>
       <c r="K29" s="23">
-        <v>47</v>
+        <v>1309</v>
       </c>
       <c r="L29" s="25">
-        <v>101</v>
+        <v>2680</v>
       </c>
       <c r="M29" s="27">
-        <v>-54</v>
+        <v>-1371</v>
       </c>
       <c r="N29" s="29">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="O29" s="31">
-        <v>27</v>
+        <v>727</v>
       </c>
       <c r="P29" s="33">
-        <v>-25</v>
+        <v>-653</v>
       </c>
       <c r="Q29" s="35">
-        <v>112</v>
+        <v>3190</v>
       </c>
       <c r="R29" s="37">
-        <v>75</v>
+        <v>1991</v>
       </c>
       <c r="S29" s="39">
-        <v>37</v>
+        <v>1198</v>
       </c>
       <c r="T29" s="41">
         <v>0</v>
@@ -4621,31 +4621,31 @@
         <v>0</v>
       </c>
       <c r="W29" s="47">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="X29" s="49">
-        <v>56</v>
+        <v>1412</v>
       </c>
       <c r="Y29" s="51">
-        <v>-52</v>
+        <v>-1326</v>
       </c>
       <c r="Z29" s="53">
-        <v>372</v>
+        <v>10337</v>
       </c>
       <c r="AA29" s="55">
-        <v>53</v>
+        <v>1442</v>
       </c>
       <c r="AB29" s="57">
-        <v>318</v>
+        <v>8895</v>
       </c>
       <c r="AC29" s="59">
-        <v>123</v>
+        <v>3539</v>
       </c>
       <c r="AD29" s="61">
-        <v>196</v>
+        <v>5316</v>
       </c>
       <c r="AE29" s="63">
-        <v>-73</v>
+        <v>-1777</v>
       </c>
       <c r="AF29" s="65">
         <v>0</v>
@@ -4657,16 +4657,16 @@
         <v>0</v>
       </c>
       <c r="AI29" s="71">
-        <v>45</v>
+        <v>1229</v>
       </c>
       <c r="AJ29" s="73">
-        <v>220</v>
+        <v>6014</v>
       </c>
       <c r="AK29" s="75">
-        <v>-175</v>
+        <v>-4785</v>
       </c>
       <c r="AL29" s="77">
-        <v>10706</v>
+        <v>296765</v>
       </c>
     </row>
     <row r="30">
@@ -4674,58 +4674,58 @@
         <v>42</v>
       </c>
       <c r="B30" s="5">
-        <v>574</v>
+        <v>15337</v>
       </c>
       <c r="C30" s="7">
-        <v>612</v>
+        <v>16225</v>
       </c>
       <c r="D30" s="9">
-        <v>-38</v>
+        <v>-888</v>
       </c>
       <c r="E30" s="11">
-        <v>4412</v>
+        <v>119786</v>
       </c>
       <c r="F30" s="13">
-        <v>4366</v>
+        <v>118685</v>
       </c>
       <c r="G30" s="15">
-        <v>46</v>
+        <v>1100</v>
       </c>
       <c r="H30" s="17">
-        <v>82</v>
+        <v>2222</v>
       </c>
       <c r="I30" s="19">
-        <v>89</v>
+        <v>2415</v>
       </c>
       <c r="J30" s="21">
-        <v>-8</v>
+        <v>-193</v>
       </c>
       <c r="K30" s="23">
-        <v>16</v>
+        <v>430</v>
       </c>
       <c r="L30" s="25">
-        <v>26</v>
+        <v>698</v>
       </c>
       <c r="M30" s="27">
-        <v>-11</v>
+        <v>-268</v>
       </c>
       <c r="N30" s="29">
-        <v>14</v>
+        <v>387</v>
       </c>
       <c r="O30" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P30" s="33">
-        <v>14</v>
+        <v>384</v>
       </c>
       <c r="Q30" s="35">
-        <v>32</v>
+        <v>873</v>
       </c>
       <c r="R30" s="37">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="S30" s="39">
-        <v>30</v>
+        <v>818</v>
       </c>
       <c r="T30" s="41">
         <v>0</v>
@@ -4746,22 +4746,22 @@
         <v>0</v>
       </c>
       <c r="Z30" s="53">
-        <v>7</v>
+        <v>183</v>
       </c>
       <c r="AA30" s="55">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="AB30" s="57">
-        <v>-5</v>
+        <v>-122</v>
       </c>
       <c r="AC30" s="59">
-        <v>13</v>
+        <v>350</v>
       </c>
       <c r="AD30" s="61">
-        <v>50</v>
+        <v>1355</v>
       </c>
       <c r="AE30" s="63">
-        <v>-37</v>
+        <v>-1005</v>
       </c>
       <c r="AF30" s="65">
         <v>0</v>
@@ -4773,16 +4773,16 @@
         <v>0</v>
       </c>
       <c r="AI30" s="71">
-        <v>9</v>
+        <v>257</v>
       </c>
       <c r="AJ30" s="73">
-        <v>10</v>
+        <v>276</v>
       </c>
       <c r="AK30" s="75">
-        <v>-1</v>
+        <v>-20</v>
       </c>
       <c r="AL30" s="77">
-        <v>5077</v>
+        <v>137602</v>
       </c>
     </row>
     <row r="31">
@@ -4790,67 +4790,67 @@
         <v>43</v>
       </c>
       <c r="B31" s="5">
-        <v>1222</v>
+        <v>36118</v>
       </c>
       <c r="C31" s="7">
-        <v>1236</v>
+        <v>37176</v>
       </c>
       <c r="D31" s="9">
-        <v>-14</v>
+        <v>-1059</v>
       </c>
       <c r="E31" s="11">
-        <v>21366</v>
+        <v>647285</v>
       </c>
       <c r="F31" s="13">
-        <v>21270</v>
+        <v>643765</v>
       </c>
       <c r="G31" s="15">
-        <v>96</v>
+        <v>3520</v>
       </c>
       <c r="H31" s="17">
-        <v>191</v>
+        <v>5672</v>
       </c>
       <c r="I31" s="19">
-        <v>253</v>
+        <v>7509</v>
       </c>
       <c r="J31" s="21">
-        <v>-63</v>
+        <v>-1838</v>
       </c>
       <c r="K31" s="23">
-        <v>30</v>
+        <v>918</v>
       </c>
       <c r="L31" s="25">
-        <v>43</v>
+        <v>1281</v>
       </c>
       <c r="M31" s="27">
-        <v>-12</v>
+        <v>-363</v>
       </c>
       <c r="N31" s="29">
-        <v>6</v>
+        <v>163</v>
       </c>
       <c r="O31" s="31">
-        <v>9</v>
+        <v>257</v>
       </c>
       <c r="P31" s="33">
-        <v>-4</v>
+        <v>-94</v>
       </c>
       <c r="Q31" s="35">
-        <v>69</v>
+        <v>2094</v>
       </c>
       <c r="R31" s="37">
-        <v>98</v>
+        <v>2962</v>
       </c>
       <c r="S31" s="39">
-        <v>-29</v>
+        <v>-868</v>
       </c>
       <c r="T31" s="41">
         <v>0</v>
       </c>
       <c r="U31" s="43">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="V31" s="45">
-        <v>-1</v>
+        <v>-36</v>
       </c>
       <c r="W31" s="47">
         <v>0</v>
@@ -4862,22 +4862,22 @@
         <v>0</v>
       </c>
       <c r="Z31" s="53">
-        <v>27</v>
+        <v>804</v>
       </c>
       <c r="AA31" s="55">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="AB31" s="57">
-        <v>26</v>
+        <v>767</v>
       </c>
       <c r="AC31" s="59">
-        <v>59</v>
+        <v>1693</v>
       </c>
       <c r="AD31" s="61">
-        <v>101</v>
+        <v>2937</v>
       </c>
       <c r="AE31" s="63">
-        <v>-42</v>
+        <v>-1244</v>
       </c>
       <c r="AF31" s="65">
         <v>0</v>
@@ -4889,16 +4889,16 @@
         <v>0</v>
       </c>
       <c r="AI31" s="71">
-        <v>56</v>
+        <v>1631</v>
       </c>
       <c r="AJ31" s="73">
-        <v>75</v>
+        <v>2255</v>
       </c>
       <c r="AK31" s="75">
-        <v>-19</v>
+        <v>-624</v>
       </c>
       <c r="AL31" s="77">
-        <v>22834</v>
+        <v>690705</v>
       </c>
     </row>
     <row r="32">
@@ -4906,94 +4906,94 @@
         <v>44</v>
       </c>
       <c r="B32" s="5">
-        <v>1056</v>
+        <v>27899</v>
       </c>
       <c r="C32" s="7">
-        <v>1009</v>
+        <v>26907</v>
       </c>
       <c r="D32" s="9">
-        <v>48</v>
+        <v>992</v>
       </c>
       <c r="E32" s="11">
-        <v>11033</v>
+        <v>295472</v>
       </c>
       <c r="F32" s="13">
-        <v>9522</v>
+        <v>255172</v>
       </c>
       <c r="G32" s="15">
-        <v>1511</v>
+        <v>40300</v>
       </c>
       <c r="H32" s="17">
-        <v>79</v>
+        <v>2085</v>
       </c>
       <c r="I32" s="19">
-        <v>1611</v>
+        <v>42658</v>
       </c>
       <c r="J32" s="21">
-        <v>-1532</v>
+        <v>-40573</v>
       </c>
       <c r="K32" s="23">
-        <v>34</v>
+        <v>898</v>
       </c>
       <c r="L32" s="25">
-        <v>334</v>
+        <v>8896</v>
       </c>
       <c r="M32" s="27">
-        <v>-300</v>
+        <v>-7998</v>
       </c>
       <c r="N32" s="29">
         <v>0</v>
       </c>
       <c r="O32" s="31">
-        <v>64</v>
+        <v>1698</v>
       </c>
       <c r="P32" s="33">
-        <v>-64</v>
+        <v>-1698</v>
       </c>
       <c r="Q32" s="35">
-        <v>34</v>
+        <v>888</v>
       </c>
       <c r="R32" s="37">
-        <v>340</v>
+        <v>9063</v>
       </c>
       <c r="S32" s="39">
-        <v>-306</v>
+        <v>-8175</v>
       </c>
       <c r="T32" s="41">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="U32" s="43">
         <v>0</v>
       </c>
       <c r="V32" s="45">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="W32" s="47">
         <v>0</v>
       </c>
       <c r="X32" s="49">
-        <v>67</v>
+        <v>1793</v>
       </c>
       <c r="Y32" s="51">
-        <v>-67</v>
+        <v>-1793</v>
       </c>
       <c r="Z32" s="53">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="AA32" s="55">
-        <v>17</v>
+        <v>456</v>
       </c>
       <c r="AB32" s="57">
-        <v>-6</v>
+        <v>-178</v>
       </c>
       <c r="AC32" s="59">
         <v>0</v>
       </c>
       <c r="AD32" s="61">
-        <v>789</v>
+        <v>20751</v>
       </c>
       <c r="AE32" s="63">
-        <v>-789</v>
+        <v>-20751</v>
       </c>
       <c r="AF32" s="65">
         <v>0</v>
@@ -5005,16 +5005,16 @@
         <v>0</v>
       </c>
       <c r="AI32" s="71">
-        <v>48</v>
+        <v>1261</v>
       </c>
       <c r="AJ32" s="73">
-        <v>75</v>
+        <v>1981</v>
       </c>
       <c r="AK32" s="75">
-        <v>-27</v>
+        <v>-719</v>
       </c>
       <c r="AL32" s="77">
-        <v>12216</v>
+        <v>326717</v>
       </c>
     </row>
     <row r="33">
@@ -5022,58 +5022,58 @@
         <v>45</v>
       </c>
       <c r="B33" s="5">
-        <v>1653</v>
+        <v>61725</v>
       </c>
       <c r="C33" s="7">
-        <v>1847</v>
+        <v>69398</v>
       </c>
       <c r="D33" s="9">
-        <v>-194</v>
+        <v>-7673</v>
       </c>
       <c r="E33" s="11">
-        <v>32191</v>
+        <v>1239277</v>
       </c>
       <c r="F33" s="13">
-        <v>31971</v>
+        <v>1230729</v>
       </c>
       <c r="G33" s="15">
-        <v>220</v>
+        <v>8548</v>
       </c>
       <c r="H33" s="17">
-        <v>138</v>
+        <v>5330</v>
       </c>
       <c r="I33" s="19">
-        <v>177</v>
+        <v>6660</v>
       </c>
       <c r="J33" s="21">
-        <v>-39</v>
+        <v>-1330</v>
       </c>
       <c r="K33" s="23">
-        <v>13</v>
+        <v>424</v>
       </c>
       <c r="L33" s="25">
-        <v>41</v>
+        <v>1451</v>
       </c>
       <c r="M33" s="27">
-        <v>-28</v>
+        <v>-1027</v>
       </c>
       <c r="N33" s="29">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="O33" s="31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P33" s="33">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="Q33" s="35">
-        <v>88</v>
+        <v>3502</v>
       </c>
       <c r="R33" s="37">
-        <v>92</v>
+        <v>3593</v>
       </c>
       <c r="S33" s="39">
-        <v>-5</v>
+        <v>-91</v>
       </c>
       <c r="T33" s="41">
         <v>0</v>
@@ -5088,28 +5088,28 @@
         <v>0</v>
       </c>
       <c r="X33" s="49">
-        <v>9</v>
+        <v>367</v>
       </c>
       <c r="Y33" s="51">
-        <v>-9</v>
+        <v>-367</v>
       </c>
       <c r="Z33" s="53">
-        <v>27</v>
+        <v>1035</v>
       </c>
       <c r="AA33" s="55">
-        <v>31</v>
+        <v>1088</v>
       </c>
       <c r="AB33" s="57">
-        <v>-3</v>
+        <v>-53</v>
       </c>
       <c r="AC33" s="59">
-        <v>9</v>
+        <v>328</v>
       </c>
       <c r="AD33" s="61">
-        <v>4</v>
+        <v>159</v>
       </c>
       <c r="AE33" s="63">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="AF33" s="65">
         <v>0</v>
@@ -5121,16 +5121,16 @@
         <v>0</v>
       </c>
       <c r="AI33" s="71">
-        <v>64</v>
+        <v>2362</v>
       </c>
       <c r="AJ33" s="73">
-        <v>50</v>
+        <v>1907</v>
       </c>
       <c r="AK33" s="75">
-        <v>13</v>
+        <v>454</v>
       </c>
       <c r="AL33" s="77">
-        <v>34046</v>
+        <v>1308694</v>
       </c>
     </row>
     <row r="34">
@@ -5138,94 +5138,94 @@
         <v>46</v>
       </c>
       <c r="B34" s="5">
-        <v>998</v>
+        <v>41833</v>
       </c>
       <c r="C34" s="7">
-        <v>631</v>
+        <v>27153</v>
       </c>
       <c r="D34" s="9">
-        <v>366</v>
+        <v>14680</v>
       </c>
       <c r="E34" s="11">
-        <v>42895</v>
+        <v>1941767</v>
       </c>
       <c r="F34" s="13">
-        <v>41514</v>
+        <v>1879140</v>
       </c>
       <c r="G34" s="15">
-        <v>1381</v>
+        <v>62627</v>
       </c>
       <c r="H34" s="17">
-        <v>87</v>
+        <v>3942</v>
       </c>
       <c r="I34" s="19">
-        <v>1584</v>
+        <v>70345</v>
       </c>
       <c r="J34" s="21">
-        <v>-1497</v>
+        <v>-66403</v>
       </c>
       <c r="K34" s="23">
-        <v>7</v>
+        <v>312</v>
       </c>
       <c r="L34" s="25">
-        <v>308</v>
+        <v>13804</v>
       </c>
       <c r="M34" s="27">
-        <v>-301</v>
+        <v>-13491</v>
       </c>
       <c r="N34" s="29">
+        <v>148</v>
+      </c>
+      <c r="O34" s="31">
         <v>3</v>
       </c>
-      <c r="O34" s="31">
-        <v>0</v>
-      </c>
       <c r="P34" s="33">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="Q34" s="35">
-        <v>59</v>
+        <v>2699</v>
       </c>
       <c r="R34" s="37">
-        <v>206</v>
+        <v>9286</v>
       </c>
       <c r="S34" s="39">
-        <v>-147</v>
+        <v>-6587</v>
       </c>
       <c r="T34" s="41">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="U34" s="43">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="V34" s="45">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="W34" s="47">
         <v>0</v>
       </c>
       <c r="X34" s="49">
-        <v>41</v>
+        <v>1838</v>
       </c>
       <c r="Y34" s="51">
-        <v>-41</v>
+        <v>-1838</v>
       </c>
       <c r="Z34" s="53">
-        <v>17</v>
+        <v>744</v>
       </c>
       <c r="AA34" s="55">
-        <v>5</v>
+        <v>205</v>
       </c>
       <c r="AB34" s="57">
-        <v>12</v>
+        <v>539</v>
       </c>
       <c r="AC34" s="59">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD34" s="61">
-        <v>1024</v>
+        <v>45195</v>
       </c>
       <c r="AE34" s="63">
-        <v>-1024</v>
+        <v>-45186</v>
       </c>
       <c r="AF34" s="65">
         <v>0</v>
@@ -5237,16 +5237,16 @@
         <v>0</v>
       </c>
       <c r="AI34" s="71">
-        <v>110</v>
+        <v>4877</v>
       </c>
       <c r="AJ34" s="73">
-        <v>361</v>
+        <v>15781</v>
       </c>
       <c r="AK34" s="75">
-        <v>-250</v>
+        <v>-10904</v>
       </c>
       <c r="AL34" s="77">
-        <v>44090</v>
+        <v>1992419</v>
       </c>
     </row>
     <row r="35">
@@ -5254,94 +5254,94 @@
         <v>47</v>
       </c>
       <c r="B35" s="6">
-        <v>987</v>
+        <v>24552</v>
       </c>
       <c r="C35" s="8">
-        <v>3906</v>
+        <v>78830</v>
       </c>
       <c r="D35" s="10">
-        <v>-2920</v>
+        <v>-54278</v>
       </c>
       <c r="E35" s="12">
-        <v>219763</v>
+        <v>6760994</v>
       </c>
       <c r="F35" s="14">
-        <v>214022</v>
+        <v>6648984</v>
       </c>
       <c r="G35" s="16">
-        <v>5742</v>
+        <v>112010</v>
       </c>
       <c r="H35" s="18">
-        <v>378</v>
+        <v>10373</v>
       </c>
       <c r="I35" s="20">
-        <v>3096</v>
+        <v>70806</v>
       </c>
       <c r="J35" s="22">
-        <v>-2717</v>
+        <v>-60433</v>
       </c>
       <c r="K35" s="24">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="L35" s="26">
-        <v>1058</v>
+        <v>21273</v>
       </c>
       <c r="M35" s="28">
-        <v>-1053</v>
+        <v>-21164</v>
       </c>
       <c r="N35" s="30">
         <v>0</v>
       </c>
       <c r="O35" s="32">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="P35" s="34">
-        <v>-6</v>
+        <v>-93</v>
       </c>
       <c r="Q35" s="36">
-        <v>204</v>
+        <v>6845</v>
       </c>
       <c r="R35" s="38">
-        <v>555</v>
+        <v>15993</v>
       </c>
       <c r="S35" s="40">
-        <v>-351</v>
+        <v>-9148</v>
       </c>
       <c r="T35" s="42">
         <v>0</v>
       </c>
       <c r="U35" s="44">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="V35" s="46">
-        <v>-10</v>
+        <v>-158</v>
       </c>
       <c r="W35" s="48">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="X35" s="50">
-        <v>272</v>
+        <v>5254</v>
       </c>
       <c r="Y35" s="52">
-        <v>-270</v>
+        <v>-5228</v>
       </c>
       <c r="Z35" s="54">
-        <v>159</v>
+        <v>3249</v>
       </c>
       <c r="AA35" s="56">
-        <v>96</v>
+        <v>3635</v>
       </c>
       <c r="AB35" s="58">
-        <v>63</v>
+        <v>-386</v>
       </c>
       <c r="AC35" s="60">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="AD35" s="62">
-        <v>1099</v>
+        <v>24401</v>
       </c>
       <c r="AE35" s="64">
-        <v>-1091</v>
+        <v>-24257</v>
       </c>
       <c r="AF35" s="66">
         <v>0</v>
@@ -5353,16 +5353,16 @@
         <v>0</v>
       </c>
       <c r="AI35" s="72">
-        <v>646</v>
+        <v>21221</v>
       </c>
       <c r="AJ35" s="74">
-        <v>750</v>
+        <v>18521</v>
       </c>
       <c r="AK35" s="76">
-        <v>-104</v>
+        <v>2700</v>
       </c>
       <c r="AL35" s="78">
-        <v>221774</v>
+        <v>6817141</v>
       </c>
     </row>
   </sheetData>
